--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v/>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v/>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v/>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v/>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>20</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>18</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.55480920129182</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>25.19286060573933</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>37</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-5.263157894736842</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-37.93103448275862</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-51.35135135135135</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9.740675205683736</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>24.55057408141185</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>32</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-10.52631578947368</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-29.16666666666667</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-46.875</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.745744487727806</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>21.02739296243212</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>26</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-46.15384615384615</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.857700768174933</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>19.8472707986461</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>36</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-27.77777777777778</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-40.90909090909091</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-51.85185185185185</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-23</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-63.88888888888889</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.44835775334697</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>18.64760315317841</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>39</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-45.45454545454545</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-58.62068965517241</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-27</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-69.23076923076923</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.634044109428231</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>16.89761494557862</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>39</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-44.44444444444444</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-54.54545454545454</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-64.28571428571429</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-29</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-74.35897435897436</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.180538312874272</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>17.40663415081693</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>44</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-58.33333333333334</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-21</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-67.74193548387096</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-34</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-77.27272727272727</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.692345395664637</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>16.90989253975015</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>49</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-60</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-24</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-70.58823529411765</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-39</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-79.59183673469387</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.885739777874269</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>16.44426206933784</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>42</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-52.63157894736842</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-22</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-70.96774193548387</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-33</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-78.57142857142857</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7394894326217978</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>14.30328221540322</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>46</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-66.66666666666666</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-24</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-75</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-38</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-82.60869565217391</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.5626978771616568</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>13.0409702708751</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>47</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>-14</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-18</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-26</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-81.25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-41</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-87.2340425531915</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.823468817435828</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>12.00602625451531</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>52</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>-17</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-77.27272727272727</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-80.76923076923077</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-86.11111111111111</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-47</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-90.38461538461539</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.964234332663032</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>11.1400747469588</v>
       </c>
       <c r="D14" t="n">
         <v>20</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>48</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-80</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-87.87878787878788</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-44</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-91.66666666666666</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-3.975080555713568</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>10.74674851379401</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>47</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-84.21052631578947</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-86.95652173913044</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-29</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-90.625</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-44</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-93.61702127659575</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-4.804747545008822</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>10.12540386673713</v>
       </c>
       <c r="D16" t="n">
         <v>19</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>46</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-84.21052631578947</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-86.95652173913044</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-90.625</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-43</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-93.47826086956522</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.423989129515266</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>9.397459455936605</v>
       </c>
       <c r="D17" t="n">
         <v>18</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>44</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>-16</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-88.88888888888889</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-19</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-90.47619047619048</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-27</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-93.10344827586206</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-42</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-95.45454545454545</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Z790 GAMING X AX</t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1807,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,19 +425,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Forecast</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>yhat</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
@@ -460,79 +460,28 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Diff_Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Pct_Mean Forecast</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Diff_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Pct_P70 Forecast</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Diff_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Pct_P80 Forecast</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Diff_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Pct_P90 Forecast</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>is_holiday_week</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>18</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11.55480920129182</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.19286060573933</v>
       </c>
       <c r="D2" t="n">
         <v>19</v>
@@ -546,61 +495,28 @@
       <c r="G2" t="n">
         <v>37</v>
       </c>
-      <c r="H2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-51.35135135135135</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>17</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.740675205683736</v>
-      </c>
-      <c r="C3" t="n">
-        <v>24.55057408141185</v>
       </c>
       <c r="D3" t="n">
         <v>15</v>
@@ -614,61 +530,28 @@
       <c r="G3" t="n">
         <v>32</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-10.52631578947368</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-29.16666666666667</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-46.875</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.745744487727806</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>21.02739296243212</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
@@ -682,61 +565,28 @@
       <c r="G4" t="n">
         <v>26</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-30</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-46.15384615384615</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5.857700768174933</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>19.8472707986461</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
@@ -750,61 +600,28 @@
       <c r="G5" t="n">
         <v>36</v>
       </c>
-      <c r="H5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-27.77777777777778</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-40.90909090909091</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-14</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-51.85185185185185</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-23</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-63.88888888888889</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4.44835775334697</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>18.64760315317841</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
@@ -818,61 +635,28 @@
       <c r="G6" t="n">
         <v>39</v>
       </c>
-      <c r="H6" t="n">
-        <v>-6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-10</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-17</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-58.62068965517241</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-27</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-69.23076923076923</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.634044109428231</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>16.89761494557862</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
@@ -886,61 +670,28 @@
       <c r="G7" t="n">
         <v>39</v>
       </c>
-      <c r="H7" t="n">
-        <v>-8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-12</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-18</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-64.28571428571429</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-29</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-74.35897435897436</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.180538312874272</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>17.40663415081693</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
         <v>20</v>
@@ -954,61 +705,28 @@
       <c r="G8" t="n">
         <v>44</v>
       </c>
-      <c r="H8" t="n">
-        <v>-10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-58.33333333333334</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-21</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-67.74193548387096</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>-77.27272727272727</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.692345395664637</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>16.90989253975015</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>20</v>
@@ -1022,61 +740,28 @@
       <c r="G9" t="n">
         <v>49</v>
       </c>
-      <c r="H9" t="n">
-        <v>-10</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-24</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-70.58823529411765</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-39</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-79.59183673469387</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.885739777874269</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>16.44426206933784</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
         <v>19</v>
@@ -1090,61 +775,28 @@
       <c r="G10" t="n">
         <v>42</v>
       </c>
-      <c r="H10" t="n">
-        <v>-10</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-52.63157894736842</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-62.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-22</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-70.96774193548387</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-33</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-78.57142857142857</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7394894326217978</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>14.30328221540322</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
@@ -1158,61 +810,28 @@
       <c r="G11" t="n">
         <v>46</v>
       </c>
-      <c r="H11" t="n">
-        <v>-12</v>
-      </c>
-      <c r="I11" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-16</v>
-      </c>
-      <c r="K11" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-24</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-75</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-38</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-82.60869565217391</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.5626978771616568</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>13.0409702708751</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>20</v>
@@ -1226,61 +845,28 @@
       <c r="G12" t="n">
         <v>47</v>
       </c>
-      <c r="H12" t="n">
-        <v>-14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-18</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-26</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-81.25</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-41</v>
-      </c>
-      <c r="O12" t="n">
-        <v>-87.2340425531915</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.823468817435828</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>12.00602625451531</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
         <v>22</v>
@@ -1294,61 +880,28 @@
       <c r="G13" t="n">
         <v>52</v>
       </c>
-      <c r="H13" t="n">
-        <v>-17</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-77.27272727272727</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-21</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-80.76923076923077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-31</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-86.11111111111111</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-47</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-90.38461538461539</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-2.964234332663032</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>11.1400747469588</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>20</v>
@@ -1362,61 +915,28 @@
       <c r="G14" t="n">
         <v>48</v>
       </c>
-      <c r="H14" t="n">
-        <v>-16</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-20</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-29</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-87.87878787878788</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-44</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-91.66666666666666</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-3.975080555713568</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>10.74674851379401</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -1430,61 +950,28 @@
       <c r="G15" t="n">
         <v>47</v>
       </c>
-      <c r="H15" t="n">
-        <v>-16</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-84.21052631578947</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-20</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-86.95652173913044</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-29</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-90.625</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-44</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-93.61702127659575</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-4.804747545008822</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>10.12540386673713</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
         <v>19</v>
@@ -1498,61 +985,28 @@
       <c r="G16" t="n">
         <v>46</v>
       </c>
-      <c r="H16" t="n">
-        <v>-16</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-84.21052631578947</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-20</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-86.95652173913044</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-29</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-90.625</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-43</v>
-      </c>
-      <c r="O16" t="n">
-        <v>-93.47826086956522</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-5.423989129515266</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>9.397459455936605</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>18</v>
@@ -1566,50 +1020,13 @@
       <c r="G17" t="n">
         <v>44</v>
       </c>
-      <c r="H17" t="n">
-        <v>-16</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-88.88888888888889</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-19</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-90.47619047619048</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-27</v>
-      </c>
-      <c r="M17" t="n">
-        <v>-93.10344827586206</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-42</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-95.45454545454545</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v/>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
         <v>22</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>21</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
         <v>21</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
         <v>22</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
         <v>22</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>19</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>23</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>30</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>29</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>18</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>22</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>27</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>36</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>18</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>22</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>27</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>36</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>21</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>26</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>32</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>42</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
         <v>21</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>26</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>32</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>43</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>21</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>33</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>44</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>26</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>22</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>26</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>35</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>48</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>29</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
         <v>22</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>26</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>36</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>53</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>24</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>20</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>24</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>31</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>44</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>25</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>20</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>24</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>34</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>50</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>28</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>20</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>24</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>33</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>49</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>22</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="D13" t="n">
+        <v>23</v>
+      </c>
+      <c r="E13" t="n">
         <v>21</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>25</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>35</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>51</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>22</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
       </c>
       <c r="D14" t="n">
+        <v>23</v>
+      </c>
+      <c r="E14" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>23</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>32</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>46</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>26</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>18</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>21</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>30</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>45</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>21</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>18</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>22</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>30</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>45</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>21</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>17</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>21</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>29</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>42</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z790 GAMING X AX</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1152,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>400</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>398</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>210</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>208</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>209</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
         <v>21</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
         <v>21</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>22</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>20</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>19</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
         <v>18</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-12-29</t>
+          <t>2023-01-01 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3297 units</t>
+          <t>3318 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>262</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
-        <v>23</v>
-      </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
         <v>18</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>22</v>
       </c>
-      <c r="G3" t="n">
-        <v>27</v>
-      </c>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
         <v>18</v>
       </c>
-      <c r="F4" t="n">
-        <v>22</v>
-      </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" t="n">
         <v>21</v>
       </c>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
-        <v>21</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>25</v>
       </c>
-      <c r="G7" t="n">
-        <v>33</v>
-      </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
         <v>18</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>22</v>
       </c>
-      <c r="F8" t="n">
-        <v>26</v>
-      </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H9" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
         <v>24</v>
       </c>
-      <c r="G10" t="n">
-        <v>31</v>
-      </c>
       <c r="H10" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -974,16 +974,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1014,16 +1014,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1054,16 +1054,16 @@
         <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H16" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1094,16 +1094,16 @@
         <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-05</t>
+          <t>2023-01-01 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3318 units</t>
+          <t>3326 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>233</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>237</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>251</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>18</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>16</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-12</t>
+          <t>2023-01-01 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
+++ b/Sufficient data/forecast_summary_B0BSVYXM5C.xlsx
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3326 units</t>
+          <t>3331 units</t>
         </is>
       </c>
     </row>
